--- a/SuppXLS/Scen_NewPlants_O-MCosts.xlsx
+++ b/SuppXLS/Scen_NewPlants_O-MCosts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IEMM\IEMM_MIG\IEMM_V60_10-1\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45F40DD-4160-4332-B9A7-651C4B9B7FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7612DD-4BF6-4898-89FA-A37B3528645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{139A344E-99C3-478C-81EE-103BE2CE21CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12072" activeTab="2" xr2:uid="{139A344E-99C3-478C-81EE-103BE2CE21CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="VarOM_Shape" sheetId="7" r:id="rId5"/>
     <sheet name="deactivate old values" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
   <si>
     <t>Attribute</t>
   </si>
@@ -302,6 +305,12 @@
   </si>
   <si>
     <t>FLO_FUNCX</t>
+  </si>
+  <si>
+    <t>EN_Z*COA*</t>
+  </si>
+  <si>
+    <t>EN_Z*Gas*</t>
   </si>
 </sst>
 </file>
@@ -687,49 +696,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA9618F-BD5B-A140-9D28-F7D4FBC11B96}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -746,42 +755,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -840,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -899,7 +908,7 @@
         <v>98.856600000000014</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -958,7 +967,7 @@
         <v>63.184628571428576</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -1017,7 +1026,7 @@
         <v>63.184628571428576</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v>63.184628571428576</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>15.742971428571428</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>51</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>15.742971428571428</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>51</v>
       </c>
@@ -1253,7 +1262,7 @@
         <v>10.278258804173355</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>10.278258804173355</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>51</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>15.742971428571428</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1439,7 @@
         <v>63.184628571428576</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>51</v>
       </c>
@@ -1489,7 +1498,7 @@
         <v>15.742971428571428</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>63.184628571428576</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>51</v>
       </c>
@@ -1676,44 +1685,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3A75A9-7EF2-4DB5-98BD-74582005626C}">
   <dimension ref="B3:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1899,7 +1910,7 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1961,7 +1972,7 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>66</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>66</v>
       </c>
@@ -2085,7 +2096,7 @@
         <v>8.6530000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>66</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>8.6530000000000005</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -2209,7 +2220,7 @@
         <v>5.649</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>66</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>5.649</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>66</v>
       </c>
@@ -2333,12 +2344,12 @@
         <v>8.6530000000000005</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -2395,12 +2406,12 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -2457,7 +2468,7 @@
         <v>8.6530000000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>66</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>8.9890000000000008</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -2655,47 +2666,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>65</v>
       </c>
@@ -2814,7 +2825,7 @@
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -2874,7 +2885,7 @@
       </c>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>65</v>
       </c>
@@ -2934,7 +2945,7 @@
       </c>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -2994,7 +3005,7 @@
       </c>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -3054,7 +3065,7 @@
       </c>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>65</v>
       </c>
@@ -3114,7 +3125,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>65</v>
       </c>
@@ -3174,7 +3185,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>65</v>
       </c>
@@ -3234,7 +3245,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -3294,7 +3305,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -3354,7 +3365,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>65</v>
       </c>
@@ -3426,47 +3437,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3528,7 +3539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -3652,7 +3663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -3714,7 +3725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -3776,7 +3787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -3838,7 +3849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -3900,7 +3911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -3962,7 +3973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -4024,7 +4035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>67</v>
       </c>
@@ -4086,7 +4097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -4222,23 +4233,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -4246,7 +4257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4254,12 +4265,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -4282,7 +4293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -4302,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4340,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -4357,12 +4368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -4376,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>19</v>
       </c>

--- a/SuppXLS/Scen_NewPlants_O-MCosts.xlsx
+++ b/SuppXLS/Scen_NewPlants_O-MCosts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7612DD-4BF6-4898-89FA-A37B3528645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC254A-ED42-451C-96A9-451B135304B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="12072" activeTab="2" xr2:uid="{139A344E-99C3-478C-81EE-103BE2CE21CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{139A344E-99C3-478C-81EE-103BE2CE21CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="4" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="71">
   <si>
     <t>Attribute</t>
   </si>
@@ -311,13 +311,16 @@
   </si>
   <si>
     <t>EN_Z*Gas*</t>
+  </si>
+  <si>
+    <t>Deactivated~TFM_INS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +356,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,18 +388,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="2" xr:uid="{AEFE4B2F-BC59-453D-95CD-D5913E2762FD}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{2A79A361-C5D0-4BCC-AF5C-2B41C98A7686}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E730CB83-D622-49EA-B411-7E224A31CBE1}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{D3C02D0F-8B32-4DC7-B171-0B82C3C4912F}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{1EB9989B-F0C6-4256-B3B8-BB29E373B7DE}"/>
+    <cellStyle name="Normale_B2020" xfId="6" xr:uid="{F7898967-9420-4EBD-84B4-1E0021CAB28D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1685,7 +1715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3A75A9-7EF2-4DB5-98BD-74582005626C}">
   <dimension ref="B3:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2662,9 +2692,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF2DE58-3EAB-4DDF-8713-DA6BA9AD5AC7}">
-  <dimension ref="B3:U15"/>
+  <dimension ref="B3:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2703,7 +2735,7 @@
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
@@ -3424,6 +3456,719 @@
         <v>41</v>
       </c>
       <c r="U15" s="1"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="5">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5">
+        <v>11</v>
+      </c>
+      <c r="H21" s="5">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5">
+        <v>11</v>
+      </c>
+      <c r="J21" s="5">
+        <v>11</v>
+      </c>
+      <c r="K21" s="5">
+        <v>11</v>
+      </c>
+      <c r="L21" s="5">
+        <v>11</v>
+      </c>
+      <c r="M21" s="5">
+        <v>11</v>
+      </c>
+      <c r="N21" s="5">
+        <v>11</v>
+      </c>
+      <c r="O21" s="5">
+        <v>11</v>
+      </c>
+      <c r="P21" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>11</v>
+      </c>
+      <c r="R21" s="5">
+        <v>11</v>
+      </c>
+      <c r="S21" s="5">
+        <v>11</v>
+      </c>
+      <c r="T21" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5">
+        <v>11</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5">
+        <v>11</v>
+      </c>
+      <c r="J22" s="5">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5">
+        <v>11</v>
+      </c>
+      <c r="L22" s="5">
+        <v>11</v>
+      </c>
+      <c r="M22" s="5">
+        <v>11</v>
+      </c>
+      <c r="N22" s="5">
+        <v>11</v>
+      </c>
+      <c r="O22" s="5">
+        <v>11</v>
+      </c>
+      <c r="P22" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>11</v>
+      </c>
+      <c r="R22" s="5">
+        <v>11</v>
+      </c>
+      <c r="S22" s="5">
+        <v>11</v>
+      </c>
+      <c r="T22" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="5">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5">
+        <v>11</v>
+      </c>
+      <c r="H23" s="5">
+        <v>11</v>
+      </c>
+      <c r="I23" s="5">
+        <v>11</v>
+      </c>
+      <c r="J23" s="5">
+        <v>11</v>
+      </c>
+      <c r="K23" s="5">
+        <v>11</v>
+      </c>
+      <c r="L23" s="5">
+        <v>11</v>
+      </c>
+      <c r="M23" s="5">
+        <v>11</v>
+      </c>
+      <c r="N23" s="5">
+        <v>11</v>
+      </c>
+      <c r="O23" s="5">
+        <v>11</v>
+      </c>
+      <c r="P23" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>11</v>
+      </c>
+      <c r="R23" s="5">
+        <v>11</v>
+      </c>
+      <c r="S23" s="5">
+        <v>11</v>
+      </c>
+      <c r="T23" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="5">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5">
+        <v>12</v>
+      </c>
+      <c r="H24" s="5">
+        <v>12</v>
+      </c>
+      <c r="I24" s="5">
+        <v>12</v>
+      </c>
+      <c r="J24" s="5">
+        <v>12</v>
+      </c>
+      <c r="K24" s="5">
+        <v>12</v>
+      </c>
+      <c r="L24" s="5">
+        <v>12</v>
+      </c>
+      <c r="M24" s="5">
+        <v>12</v>
+      </c>
+      <c r="N24" s="5">
+        <v>12</v>
+      </c>
+      <c r="O24" s="5">
+        <v>12</v>
+      </c>
+      <c r="P24" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>12</v>
+      </c>
+      <c r="R24" s="5">
+        <v>12</v>
+      </c>
+      <c r="S24" s="5">
+        <v>12</v>
+      </c>
+      <c r="T24" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5">
+        <v>12</v>
+      </c>
+      <c r="H25" s="5">
+        <v>12</v>
+      </c>
+      <c r="I25" s="5">
+        <v>12</v>
+      </c>
+      <c r="J25" s="5">
+        <v>12</v>
+      </c>
+      <c r="K25" s="5">
+        <v>12</v>
+      </c>
+      <c r="L25" s="5">
+        <v>12</v>
+      </c>
+      <c r="M25" s="5">
+        <v>12</v>
+      </c>
+      <c r="N25" s="5">
+        <v>12</v>
+      </c>
+      <c r="O25" s="5">
+        <v>12</v>
+      </c>
+      <c r="P25" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>12</v>
+      </c>
+      <c r="R25" s="5">
+        <v>12</v>
+      </c>
+      <c r="S25" s="5">
+        <v>12</v>
+      </c>
+      <c r="T25" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5">
+        <v>12</v>
+      </c>
+      <c r="I26" s="5">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>12</v>
+      </c>
+      <c r="K26" s="5">
+        <v>12</v>
+      </c>
+      <c r="L26" s="5">
+        <v>12</v>
+      </c>
+      <c r="M26" s="5">
+        <v>12</v>
+      </c>
+      <c r="N26" s="5">
+        <v>12</v>
+      </c>
+      <c r="O26" s="5">
+        <v>12</v>
+      </c>
+      <c r="P26" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>12</v>
+      </c>
+      <c r="R26" s="5">
+        <v>12</v>
+      </c>
+      <c r="S26" s="5">
+        <v>12</v>
+      </c>
+      <c r="T26" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="5">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5">
+        <v>12</v>
+      </c>
+      <c r="H27" s="5">
+        <v>12</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5">
+        <v>12</v>
+      </c>
+      <c r="K27" s="5">
+        <v>12</v>
+      </c>
+      <c r="L27" s="5">
+        <v>12</v>
+      </c>
+      <c r="M27" s="5">
+        <v>12</v>
+      </c>
+      <c r="N27" s="5">
+        <v>12</v>
+      </c>
+      <c r="O27" s="5">
+        <v>12</v>
+      </c>
+      <c r="P27" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>12</v>
+      </c>
+      <c r="R27" s="5">
+        <v>12</v>
+      </c>
+      <c r="S27" s="5">
+        <v>12</v>
+      </c>
+      <c r="T27" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
+        <v>12</v>
+      </c>
+      <c r="H28" s="5">
+        <v>12</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="5">
+        <v>12</v>
+      </c>
+      <c r="K28" s="5">
+        <v>12</v>
+      </c>
+      <c r="L28" s="5">
+        <v>12</v>
+      </c>
+      <c r="M28" s="5">
+        <v>12</v>
+      </c>
+      <c r="N28" s="5">
+        <v>12</v>
+      </c>
+      <c r="O28" s="5">
+        <v>12</v>
+      </c>
+      <c r="P28" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>12</v>
+      </c>
+      <c r="R28" s="5">
+        <v>12</v>
+      </c>
+      <c r="S28" s="5">
+        <v>12</v>
+      </c>
+      <c r="T28" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="5">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5">
+        <v>11</v>
+      </c>
+      <c r="G29" s="5">
+        <v>11</v>
+      </c>
+      <c r="H29" s="5">
+        <v>11</v>
+      </c>
+      <c r="I29" s="5">
+        <v>11</v>
+      </c>
+      <c r="J29" s="5">
+        <v>11</v>
+      </c>
+      <c r="K29" s="5">
+        <v>11</v>
+      </c>
+      <c r="L29" s="5">
+        <v>11</v>
+      </c>
+      <c r="M29" s="5">
+        <v>11</v>
+      </c>
+      <c r="N29" s="5">
+        <v>11</v>
+      </c>
+      <c r="O29" s="5">
+        <v>11</v>
+      </c>
+      <c r="P29" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>11</v>
+      </c>
+      <c r="R29" s="5">
+        <v>11</v>
+      </c>
+      <c r="S29" s="5">
+        <v>11</v>
+      </c>
+      <c r="T29" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5">
+        <v>12</v>
+      </c>
+      <c r="H30" s="5">
+        <v>12</v>
+      </c>
+      <c r="I30" s="5">
+        <v>12</v>
+      </c>
+      <c r="J30" s="5">
+        <v>12</v>
+      </c>
+      <c r="K30" s="5">
+        <v>12</v>
+      </c>
+      <c r="L30" s="5">
+        <v>12</v>
+      </c>
+      <c r="M30" s="5">
+        <v>12</v>
+      </c>
+      <c r="N30" s="5">
+        <v>12</v>
+      </c>
+      <c r="O30" s="5">
+        <v>12</v>
+      </c>
+      <c r="P30" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>12</v>
+      </c>
+      <c r="R30" s="5">
+        <v>12</v>
+      </c>
+      <c r="S30" s="5">
+        <v>12</v>
+      </c>
+      <c r="T30" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="5">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5">
+        <v>11</v>
+      </c>
+      <c r="G31" s="5">
+        <v>11</v>
+      </c>
+      <c r="H31" s="5">
+        <v>11</v>
+      </c>
+      <c r="I31" s="5">
+        <v>11</v>
+      </c>
+      <c r="J31" s="5">
+        <v>11</v>
+      </c>
+      <c r="K31" s="5">
+        <v>11</v>
+      </c>
+      <c r="L31" s="5">
+        <v>11</v>
+      </c>
+      <c r="M31" s="5">
+        <v>11</v>
+      </c>
+      <c r="N31" s="5">
+        <v>11</v>
+      </c>
+      <c r="O31" s="5">
+        <v>11</v>
+      </c>
+      <c r="P31" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>11</v>
+      </c>
+      <c r="R31" s="5">
+        <v>11</v>
+      </c>
+      <c r="S31" s="5">
+        <v>11</v>
+      </c>
+      <c r="T31" s="5">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3433,9 +4178,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8308C718-47AA-4CE0-BC52-DE302097C308}">
-  <dimension ref="B3:U15"/>
+  <dimension ref="B3:AF18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="B3:U15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3458,8 +4205,8 @@
     <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.88671875" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" customWidth="1"/>
     <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="4.33203125" bestFit="1" customWidth="1"/>
@@ -3472,12 +4219,21 @@
     <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3538,8 +4294,17 @@
       <c r="U4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -3550,58 +4315,67 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>55</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>45</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>35</v>
-      </c>
-      <c r="L5">
-        <v>55</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>45</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
-      </c>
-      <c r="Q5">
-        <v>15</v>
-      </c>
-      <c r="R5">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>35</v>
-      </c>
-      <c r="T5">
-        <v>25</v>
-      </c>
-      <c r="U5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>12</v>
+      </c>
+      <c r="M5" s="5">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5">
+        <v>12</v>
+      </c>
+      <c r="O5" s="5">
+        <v>12</v>
+      </c>
+      <c r="P5" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>12</v>
+      </c>
+      <c r="R5" s="5">
+        <v>12</v>
+      </c>
+      <c r="S5" s="5">
+        <v>12</v>
+      </c>
+      <c r="T5" s="5">
+        <v>12</v>
+      </c>
+      <c r="U5" s="5">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -3611,59 +4385,68 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>55</v>
-      </c>
-      <c r="H6">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>45</v>
-      </c>
-      <c r="J6">
-        <v>15</v>
-      </c>
-      <c r="K6">
-        <v>35</v>
-      </c>
-      <c r="L6">
-        <v>55</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>45</v>
-      </c>
-      <c r="O6">
-        <v>15</v>
-      </c>
-      <c r="P6">
-        <v>15</v>
-      </c>
-      <c r="Q6">
-        <v>15</v>
-      </c>
-      <c r="R6">
-        <v>25</v>
-      </c>
-      <c r="S6">
-        <v>35</v>
-      </c>
-      <c r="T6">
-        <v>25</v>
-      </c>
-      <c r="U6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
+        <v>12</v>
+      </c>
+      <c r="J6" s="5">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5">
+        <v>12</v>
+      </c>
+      <c r="N6" s="5">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5">
+        <v>12</v>
+      </c>
+      <c r="P6" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>12</v>
+      </c>
+      <c r="R6" s="5">
+        <v>12</v>
+      </c>
+      <c r="S6" s="5">
+        <v>12</v>
+      </c>
+      <c r="T6" s="5">
+        <v>12</v>
+      </c>
+      <c r="U6" s="5">
+        <v>12</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>67</v>
       </c>
@@ -3673,59 +4456,68 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>55</v>
-      </c>
-      <c r="H7">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>45</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>35</v>
-      </c>
-      <c r="L7">
-        <v>55</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>45</v>
-      </c>
-      <c r="O7">
-        <v>15</v>
-      </c>
-      <c r="P7">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <v>15</v>
-      </c>
-      <c r="R7">
-        <v>25</v>
-      </c>
-      <c r="S7">
-        <v>35</v>
-      </c>
-      <c r="T7">
-        <v>25</v>
-      </c>
-      <c r="U7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5">
+        <v>12</v>
+      </c>
+      <c r="J7" s="5">
+        <v>12</v>
+      </c>
+      <c r="K7" s="5">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>12</v>
+      </c>
+      <c r="M7" s="5">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>12</v>
+      </c>
+      <c r="O7" s="5">
+        <v>12</v>
+      </c>
+      <c r="P7" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>12</v>
+      </c>
+      <c r="R7" s="5">
+        <v>12</v>
+      </c>
+      <c r="S7" s="5">
+        <v>12</v>
+      </c>
+      <c r="T7" s="5">
+        <v>12</v>
+      </c>
+      <c r="U7" s="5">
+        <v>12</v>
+      </c>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -3736,58 +4528,67 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>57</v>
-      </c>
-      <c r="H8">
-        <v>27</v>
-      </c>
-      <c r="I8">
-        <v>47</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>37</v>
-      </c>
-      <c r="L8">
-        <v>57</v>
-      </c>
-      <c r="M8">
-        <v>17</v>
-      </c>
-      <c r="N8">
-        <v>47</v>
-      </c>
-      <c r="O8">
-        <v>17</v>
-      </c>
-      <c r="P8">
-        <v>17</v>
-      </c>
-      <c r="Q8">
-        <v>17</v>
-      </c>
-      <c r="R8">
-        <v>27</v>
-      </c>
-      <c r="S8">
-        <v>37</v>
-      </c>
-      <c r="T8">
-        <v>27</v>
-      </c>
-      <c r="U8">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <v>22</v>
+      </c>
+      <c r="I8" s="5">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5">
+        <v>22</v>
+      </c>
+      <c r="K8" s="5">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5">
+        <v>22</v>
+      </c>
+      <c r="M8" s="5">
+        <v>22</v>
+      </c>
+      <c r="N8" s="5">
+        <v>22</v>
+      </c>
+      <c r="O8" s="5">
+        <v>22</v>
+      </c>
+      <c r="P8" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>22</v>
+      </c>
+      <c r="R8" s="5">
+        <v>22</v>
+      </c>
+      <c r="S8" s="5">
+        <v>22</v>
+      </c>
+      <c r="T8" s="5">
+        <v>22</v>
+      </c>
+      <c r="U8" s="5">
+        <v>22</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>67</v>
       </c>
@@ -3797,59 +4598,67 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>57</v>
-      </c>
-      <c r="H9">
-        <v>27</v>
-      </c>
-      <c r="I9">
-        <v>47</v>
-      </c>
-      <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>37</v>
-      </c>
-      <c r="L9">
-        <v>57</v>
-      </c>
-      <c r="M9">
-        <v>17</v>
-      </c>
-      <c r="N9">
-        <v>47</v>
-      </c>
-      <c r="O9">
-        <v>17</v>
-      </c>
-      <c r="P9">
-        <v>17</v>
-      </c>
-      <c r="Q9">
-        <v>17</v>
-      </c>
-      <c r="R9">
-        <v>27</v>
-      </c>
-      <c r="S9">
-        <v>37</v>
-      </c>
-      <c r="T9">
-        <v>27</v>
-      </c>
-      <c r="U9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <v>22</v>
+      </c>
+      <c r="I9" s="5">
+        <v>22</v>
+      </c>
+      <c r="J9" s="5">
+        <v>22</v>
+      </c>
+      <c r="K9" s="5">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5">
+        <v>22</v>
+      </c>
+      <c r="N9" s="5">
+        <v>22</v>
+      </c>
+      <c r="O9" s="5">
+        <v>22</v>
+      </c>
+      <c r="P9" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>22</v>
+      </c>
+      <c r="R9" s="5">
+        <v>22</v>
+      </c>
+      <c r="S9" s="5">
+        <v>22</v>
+      </c>
+      <c r="T9" s="5">
+        <v>22</v>
+      </c>
+      <c r="U9" s="5">
+        <v>22</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>67</v>
       </c>
@@ -3859,59 +4668,68 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>65</v>
-      </c>
-      <c r="F10">
-        <v>65</v>
-      </c>
-      <c r="G10">
-        <v>65</v>
-      </c>
-      <c r="H10">
-        <v>65</v>
-      </c>
-      <c r="I10">
-        <v>65</v>
-      </c>
-      <c r="J10">
-        <v>65</v>
-      </c>
-      <c r="K10">
-        <v>65</v>
-      </c>
-      <c r="L10">
-        <v>65</v>
-      </c>
-      <c r="M10">
-        <v>65</v>
-      </c>
-      <c r="N10">
-        <v>65</v>
-      </c>
-      <c r="O10">
-        <v>65</v>
-      </c>
-      <c r="P10">
-        <v>65</v>
-      </c>
-      <c r="Q10">
-        <v>65</v>
-      </c>
-      <c r="R10">
-        <v>65</v>
-      </c>
-      <c r="S10">
-        <v>65</v>
-      </c>
-      <c r="T10">
-        <v>65</v>
-      </c>
-      <c r="U10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5">
+        <v>22</v>
+      </c>
+      <c r="I10" s="5">
+        <v>22</v>
+      </c>
+      <c r="J10" s="5">
+        <v>22</v>
+      </c>
+      <c r="K10" s="5">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5">
+        <v>22</v>
+      </c>
+      <c r="M10" s="5">
+        <v>22</v>
+      </c>
+      <c r="N10" s="5">
+        <v>22</v>
+      </c>
+      <c r="O10" s="5">
+        <v>22</v>
+      </c>
+      <c r="P10" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>22</v>
+      </c>
+      <c r="R10" s="5">
+        <v>22</v>
+      </c>
+      <c r="S10" s="5">
+        <v>22</v>
+      </c>
+      <c r="T10" s="5">
+        <v>22</v>
+      </c>
+      <c r="U10" s="5">
+        <v>22</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -3921,59 +4739,68 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>65</v>
-      </c>
-      <c r="F11">
-        <v>65</v>
-      </c>
-      <c r="G11">
-        <v>65</v>
-      </c>
-      <c r="H11">
-        <v>65</v>
-      </c>
-      <c r="I11">
-        <v>65</v>
-      </c>
-      <c r="J11">
-        <v>65</v>
-      </c>
-      <c r="K11">
-        <v>65</v>
-      </c>
-      <c r="L11">
-        <v>65</v>
-      </c>
-      <c r="M11">
-        <v>65</v>
-      </c>
-      <c r="N11">
-        <v>65</v>
-      </c>
-      <c r="O11">
-        <v>65</v>
-      </c>
-      <c r="P11">
-        <v>65</v>
-      </c>
-      <c r="Q11">
-        <v>65</v>
-      </c>
-      <c r="R11">
-        <v>65</v>
-      </c>
-      <c r="S11">
-        <v>65</v>
-      </c>
-      <c r="T11">
-        <v>65</v>
-      </c>
-      <c r="U11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5">
+        <v>22</v>
+      </c>
+      <c r="I11" s="5">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5">
+        <v>22</v>
+      </c>
+      <c r="K11" s="5">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5">
+        <v>22</v>
+      </c>
+      <c r="M11" s="5">
+        <v>22</v>
+      </c>
+      <c r="N11" s="5">
+        <v>22</v>
+      </c>
+      <c r="O11" s="5">
+        <v>22</v>
+      </c>
+      <c r="P11" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>22</v>
+      </c>
+      <c r="R11" s="5">
+        <v>22</v>
+      </c>
+      <c r="S11" s="5">
+        <v>22</v>
+      </c>
+      <c r="T11" s="5">
+        <v>22</v>
+      </c>
+      <c r="U11" s="5">
+        <v>22</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -3983,59 +4810,68 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>17</v>
-      </c>
-      <c r="G12">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <v>27</v>
-      </c>
-      <c r="I12">
-        <v>47</v>
-      </c>
-      <c r="J12">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>37</v>
-      </c>
-      <c r="L12">
-        <v>57</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>47</v>
-      </c>
-      <c r="O12">
-        <v>17</v>
-      </c>
-      <c r="P12">
-        <v>17</v>
-      </c>
-      <c r="Q12">
-        <v>17</v>
-      </c>
-      <c r="R12">
-        <v>27</v>
-      </c>
-      <c r="S12">
-        <v>37</v>
-      </c>
-      <c r="T12">
-        <v>27</v>
-      </c>
-      <c r="U12">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5">
+        <v>22</v>
+      </c>
+      <c r="I12" s="5">
+        <v>22</v>
+      </c>
+      <c r="J12" s="5">
+        <v>22</v>
+      </c>
+      <c r="K12" s="5">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5">
+        <v>22</v>
+      </c>
+      <c r="M12" s="5">
+        <v>22</v>
+      </c>
+      <c r="N12" s="5">
+        <v>22</v>
+      </c>
+      <c r="O12" s="5">
+        <v>22</v>
+      </c>
+      <c r="P12" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>22</v>
+      </c>
+      <c r="R12" s="5">
+        <v>22</v>
+      </c>
+      <c r="S12" s="5">
+        <v>22</v>
+      </c>
+      <c r="T12" s="5">
+        <v>22</v>
+      </c>
+      <c r="U12" s="5">
+        <v>22</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>67</v>
       </c>
@@ -4045,59 +4881,68 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>55</v>
-      </c>
-      <c r="H13">
-        <v>25</v>
-      </c>
-      <c r="I13">
-        <v>45</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>35</v>
-      </c>
-      <c r="L13">
-        <v>55</v>
-      </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13">
-        <v>45</v>
-      </c>
-      <c r="O13">
-        <v>15</v>
-      </c>
-      <c r="P13">
-        <v>15</v>
-      </c>
-      <c r="Q13">
-        <v>15</v>
-      </c>
-      <c r="R13">
-        <v>25</v>
-      </c>
-      <c r="S13">
-        <v>35</v>
-      </c>
-      <c r="T13">
-        <v>25</v>
-      </c>
-      <c r="U13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <v>12</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12</v>
+      </c>
+      <c r="L13" s="5">
+        <v>12</v>
+      </c>
+      <c r="M13" s="5">
+        <v>12</v>
+      </c>
+      <c r="N13" s="5">
+        <v>12</v>
+      </c>
+      <c r="O13" s="5">
+        <v>12</v>
+      </c>
+      <c r="P13" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>12</v>
+      </c>
+      <c r="R13" s="5">
+        <v>12</v>
+      </c>
+      <c r="S13" s="5">
+        <v>12</v>
+      </c>
+      <c r="T13" s="5">
+        <v>12</v>
+      </c>
+      <c r="U13" s="5">
+        <v>12</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>67</v>
       </c>
@@ -4107,59 +4952,68 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>57</v>
-      </c>
-      <c r="H14">
-        <v>27</v>
-      </c>
-      <c r="I14">
-        <v>47</v>
-      </c>
-      <c r="J14">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>37</v>
-      </c>
-      <c r="L14">
-        <v>57</v>
-      </c>
-      <c r="M14">
-        <v>17</v>
-      </c>
-      <c r="N14">
-        <v>47</v>
-      </c>
-      <c r="O14">
-        <v>17</v>
-      </c>
-      <c r="P14">
-        <v>17</v>
-      </c>
-      <c r="Q14">
-        <v>17</v>
-      </c>
-      <c r="R14">
-        <v>27</v>
-      </c>
-      <c r="S14">
-        <v>37</v>
-      </c>
-      <c r="T14">
-        <v>27</v>
-      </c>
-      <c r="U14">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5">
+        <v>22</v>
+      </c>
+      <c r="I14" s="5">
+        <v>22</v>
+      </c>
+      <c r="J14" s="5">
+        <v>22</v>
+      </c>
+      <c r="K14" s="5">
+        <v>22</v>
+      </c>
+      <c r="L14" s="5">
+        <v>22</v>
+      </c>
+      <c r="M14" s="5">
+        <v>22</v>
+      </c>
+      <c r="N14" s="5">
+        <v>22</v>
+      </c>
+      <c r="O14" s="5">
+        <v>22</v>
+      </c>
+      <c r="P14" s="5">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>22</v>
+      </c>
+      <c r="R14" s="5">
+        <v>22</v>
+      </c>
+      <c r="S14" s="5">
+        <v>22</v>
+      </c>
+      <c r="T14" s="5">
+        <v>22</v>
+      </c>
+      <c r="U14" s="5">
+        <v>22</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -4169,57 +5023,99 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="G15">
-        <v>55</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
-      </c>
-      <c r="I15">
-        <v>45</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>35</v>
-      </c>
-      <c r="L15">
-        <v>55</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>45</v>
-      </c>
-      <c r="O15">
-        <v>15</v>
-      </c>
-      <c r="P15">
-        <v>15</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-      <c r="R15">
-        <v>25</v>
-      </c>
-      <c r="S15">
-        <v>35</v>
-      </c>
-      <c r="T15">
-        <v>25</v>
-      </c>
-      <c r="U15">
-        <v>45</v>
-      </c>
+      <c r="E15" s="5">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5">
+        <v>12</v>
+      </c>
+      <c r="K15" s="5">
+        <v>12</v>
+      </c>
+      <c r="L15" s="5">
+        <v>12</v>
+      </c>
+      <c r="M15" s="5">
+        <v>12</v>
+      </c>
+      <c r="N15" s="5">
+        <v>12</v>
+      </c>
+      <c r="O15" s="5">
+        <v>12</v>
+      </c>
+      <c r="P15" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>12</v>
+      </c>
+      <c r="R15" s="5">
+        <v>12</v>
+      </c>
+      <c r="S15" s="5">
+        <v>12</v>
+      </c>
+      <c r="T15" s="5">
+        <v>12</v>
+      </c>
+      <c r="U15" s="5">
+        <v>12</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="24:32" x14ac:dyDescent="0.3">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
